--- a/ExcelUtil.Test/bin/Debug/netcoreapp3.1/产品单sheel导出模板.xlsx
+++ b/ExcelUtil.Test/bin/Debug/netcoreapp3.1/产品单sheel导出模板.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>名称3</t>
+    <t>产品名称</t>
   </si>
   <si>
-    <t>编码3</t>
+    <t>产品代码</t>
   </si>
   <si>
     <t>产品条码</t>
@@ -95,8 +95,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="A1:D3">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="名称3"/>
-    <tableColumn id="2" name="编码3"/>
+    <tableColumn id="1" name="产品名称"/>
+    <tableColumn id="2" name="产品代码"/>
     <tableColumn id="3" name="产品条码"/>
     <tableColumn id="4" name="类型"/>
   </tableColumns>
@@ -115,8 +115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.512927532196045" customWidth="1"/>
-    <col min="2" max="2" width="12.349266052246094" customWidth="1"/>
+    <col min="1" max="1" width="13.17652416229248" customWidth="1"/>
+    <col min="2" max="2" width="13.17652416229248" customWidth="1"/>
     <col min="3" max="3" width="22.640623092651367" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
